--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29098257846094799</v>
+        <v>0.28014303919485783</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29115683118049285</v>
+        <v>0.27961009962574068</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00068033178099567715</v>
+        <v>0.0013723376422164349</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00037754834147178814</v>
+        <v>0.00091367787070562501</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0018303281400702863</v>
+        <v>-6.4390398008689644e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0002123918540163658</v>
+        <v>0.00066112201793111394</v>
       </c>
       <c r="H3" s="0">
-        <v>1.4978149145855135e-05</v>
+        <v>-8.1728063148675688e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-8.3843784885128804e-05</v>
+        <v>-0.00054103181578891058</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>7.5519903819376566e-06</v>
+        <v>-7.7573898510596706e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30084433322802323</v>
+        <v>0.35073336421669726</v>
       </c>
       <c r="C4" s="0">
-        <v>0.014933237430545995</v>
+        <v>0.047656207649844184</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3.816202684089047e-05</v>
+        <v>-1.7331675040327937e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00016353998059847696</v>
+        <v>-2.2194372746240305e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>9.1268116117723131e-06</v>
+        <v>0.00026844440317978069</v>
       </c>
       <c r="I4" s="0">
-        <v>-4.921127705101541e-05</v>
+        <v>-0.0099084768471382027</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00057714094928853219</v>
+        <v>0.0028216253540114763</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00056971301054598023</v>
+        <v>-0.0013614451364506452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29937824596222296</v>
+        <v>0.33921244002243417</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.005484651104216972</v>
+        <v>-0.0006193676251640373</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00044181755905425856</v>
+        <v>-1.8607003464928722e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0010424033172925201</v>
+        <v>0.0073009277846964689</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00024058255337842699</v>
+        <v>-0.001321407642822835</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00010106730832072422</v>
+        <v>0.00068109536932084945</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0004919978803624767</v>
+        <v>-0.0013815598813066534</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0013091136716193441</v>
+        <v>-0.0054983441692476043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.2865494298075284</v>
+        <v>0.16948422312574662</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.011886886640074009</v>
+        <v>-0.027418755958379698</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.8362393466374036e-05</v>
+        <v>-0.00023997775118923413</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.893235484557376e-05</v>
+        <v>0.00045765501530773561</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010237000486712946</v>
+        <v>0.00070517714133181591</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0012290340618413239</v>
+        <v>-0.006947850254137496</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0021754797741284082</v>
+        <v>1.8932339048649549e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28961335106244013</v>
+        <v>0.15986113530094409</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0034980634890883302</v>
+        <v>-0.023810845313554527</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0015115979381922879</v>
+        <v>-0.0025397199410046043</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.001103761082404445</v>
+        <v>0.0071024549663405096</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00011215504973909635</v>
+        <v>0.0024590125442554098</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.1487421234234347e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-7.3326019490634173e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0014401624628608833</v>
+        <v>-0.00045720643887597889</v>
       </c>
     </row>
     <row r="8">
